--- a/Экзамен/Экзамен_ПП14о-6.xlsx
+++ b/Экзамен/Экзамен_ПП14о-6.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="e">
-        <f t="shared" ref="K4:K8" si="0">AVERAGE(G5:J5)</f>
+        <f t="shared" ref="K5:K7" si="0">AVERAGE(G5:J5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="4"/>
@@ -925,10 +925,12 @@
       <c r="I17" s="4">
         <v>10</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>10</v>
+      </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>6.6666666666666661</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
